--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardlove/Desktop/Exnerator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardlove/Documents/GitHub/exnerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C66ADA3-4F84-7B4C-BCF3-893CB765A1CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CABA30-D864-6548-9970-9A581E05A0AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15020" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardlove/Documents/GitHub/exnerator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2CABA30-D864-6548-9970-9A581E05A0AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D363083-F08B-AB40-989D-FB20358C7420}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="15020" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1540,7 +1540,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
